--- a/Employee_Reports21/Abdunaser Ahmed Aragaw Q0042.xlsx
+++ b/Employee_Reports21/Abdunaser Ahmed Aragaw Q0042.xlsx
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
